--- a/Wavelet Run Tracker.xlsx
+++ b/Wavelet Run Tracker.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\DSGA_1013_Final_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alec/Documents/DSGA_1013/DSGA_1013_Final_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15BF7013-3998-49C6-8B6C-AAD9BE48A7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0D243871-EF7C-4A1A-A1CB-DF449AB32196}"/>
+    <workbookView xWindow="1100" yWindow="460" windowWidth="24500" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Wavelet</t>
   </si>
@@ -65,9 +70,6 @@
     <t>Haar</t>
   </si>
   <si>
-    <t>Daubechies</t>
-  </si>
-  <si>
     <t>Biorthogonal</t>
   </si>
   <si>
@@ -96,13 +98,19 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Daubechies 1</t>
+  </si>
+  <si>
+    <t>Daubechies 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +131,11 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Var(--jp-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,7 +159,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -154,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -162,6 +175,7 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,26 +489,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF0A0F0-81DD-4ECD-9816-0D389BF5439B}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -502,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -514,117 +528,170 @@
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>2.9389999999999999E-2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.7833680080512297E-2</v>
+      </c>
       <c r="G3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.4782589573999399E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5.5459910505510301E-2</v>
+      </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.1807431713076498E-2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5.9901586141174697E-2</v>
+      </c>
       <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.5099899700593101E-2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>6.4483489814071204E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.4620055815944399E-2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4.7580351671074203E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+      <c r="G13" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
